--- a/src/main/java/com/project/NeuralNetwork/Ручной расчет.xlsx
+++ b/src/main/java/com/project/NeuralNetwork/Ручной расчет.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_Projects\petProjectWeb\src\main\java\com\project\NeuralNetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\petProjectWeb\src\main\java\com\project\NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
   <si>
     <t>Input</t>
   </si>
@@ -102,15 +103,23 @@
   </si>
   <si>
     <t>speed=</t>
+  </si>
+  <si>
+    <t>teor_out</t>
+  </si>
+  <si>
+    <t>данные прогр.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,19 +220,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,6 +243,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,31 +535,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" customWidth="1"/>
-    <col min="16" max="16" width="31.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,7 +573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,19 +593,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
@@ -599,17 +615,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -637,104 +653,104 @@
       <c r="L8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>C3</f>
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>C3</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f>B3</f>
         <v>1</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="12">
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11">
         <f>B9*B11+C9*C11</f>
         <v>0.70414279138187097</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <f>1/(1 + POWER(2.71,(-I2)*O9))</f>
         <v>0.66862976240139815</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="14">
         <v>0.66910564149521101</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="14"/>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="14">
         <v>0.50180132132739097</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="14"/>
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="14">
         <v>0.69762531388895199</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="N10" s="5">
+      <c r="L10" s="14"/>
+      <c r="N10" s="4">
         <v>2</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <f>G9*G11+H9*H11</f>
         <v>7.2053164823551097E-3</v>
       </c>
-      <c r="P10" s="14">
-        <f t="shared" ref="P10:P11" si="0">1/(1 + POWER(2.71,(-I3)*O10))</f>
+      <c r="P10" s="13">
+        <f t="shared" ref="P10" si="0">1/(1 + POWER(2.71,(-I3)*O10))</f>
         <v>0.50179582488568575</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.70414279138187097</v>
       </c>
       <c r="C11" s="3">
@@ -758,23 +774,23 @@
       <c r="L11" s="3">
         <v>0.48595936807647699</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>3</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <f>K9*K11+L9*L11</f>
         <v>0.83601522819660201</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <f>1/(1 + POWER(2.71,(-I4)*O11))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
@@ -782,12 +798,12 @@
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,18 +831,18 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,108 +879,108 @@
       <c r="M16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f>B10</f>
         <v>0.66910564149521101</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>G10</f>
         <v>0.50180132132739097</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <f>K10</f>
         <v>0.69762531388895199</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>B10</f>
         <v>0.66910564149521101</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f>G10</f>
         <v>0.50180132132739097</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f>K10</f>
         <v>0.69762531388895199</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f>B10</f>
         <v>0.66910564149521101</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f>G10</f>
         <v>0.50180132132739097</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f>K10</f>
         <v>0.69762531388895199</v>
       </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="12">
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11">
         <f>B17*B19+C17*C19+D17*D19</f>
         <v>0.74375966838035634</v>
       </c>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="14">
         <v>0.67781744450771497</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="14">
         <v>0.67351122434696198</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="14">
         <v>0.712159832621865</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5">
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="4">
         <v>2</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <f>G17*G19+H17*H19+I17*I19</f>
         <v>0.72410909106852839</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1001,15 +1017,15 @@
       <c r="M19" s="3">
         <v>0.78127028086588102</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>3</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <f>K17*K19+L17*L19+M17*M19</f>
         <v>0.90589701853949689</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1024,12 +1040,12 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1066,18 +1082,18 @@
       <c r="M21" s="3">
         <v>0.37830907205709402</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1114,108 +1130,108 @@
       <c r="M24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f>B18</f>
         <v>0.67781744450771497</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f>G18</f>
         <v>0.67351122434696198</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f>K18</f>
         <v>0.712159832621865</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f>B18</f>
         <v>0.67781744450771497</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f>G18</f>
         <v>0.67351122434696198</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f>K18</f>
         <v>0.712159832621865</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f>B18</f>
         <v>0.67781744450771497</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f>G18</f>
         <v>0.67351122434696198</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <f>K18</f>
         <v>0.712159832621865</v>
       </c>
-      <c r="N25" s="5">
-        <v>1</v>
-      </c>
-      <c r="O25" s="12">
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="11">
         <f>B25*B27+C25*C27+D25*D27</f>
         <v>0.66214618991497032</v>
       </c>
-      <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="14">
         <v>0.65974233532937498</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="14">
         <v>0.68709357097525603</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="14">
         <v>0.74321761849451096</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="4">
         <v>2</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="11">
         <f>G25*G27+H25*H27+I25*I27</f>
         <v>0.78656628819729446</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1252,15 +1268,15 @@
       <c r="M27" s="3">
         <v>0.227252716032596</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>3</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="12">
         <f>K25*K27+L25*L27+M25*M27</f>
         <v>1.0627599318639243</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1275,11 +1291,11 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1316,11 +1332,11 @@
       <c r="M29" s="3">
         <v>0.33087557511349502</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1333,55 +1349,55 @@
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O32" s="11" t="s">
+      <c r="N32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P32" s="14" t="s">
+      <c r="P32" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f>B26</f>
         <v>0.65974233532937498</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f>G26</f>
         <v>0.68709357097525603</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f>K26</f>
         <v>0.74321761849451096</v>
       </c>
-      <c r="N33" s="5">
-        <v>1</v>
-      </c>
-      <c r="O33" s="13">
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="12">
         <f>B33*B35+C33*C35+D33*D35</f>
         <v>1.2864780254152581</v>
       </c>
-      <c r="P33" s="14"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="14">
         <v>0.78355046187545296</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="N34" s="5" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="N34" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1394,11 +1410,11 @@
       <c r="D35" s="3">
         <v>0.89229759292998501</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1422,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1436,4 +1452,436 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.86194109468248803</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.77616219659007901</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.92645066290468503</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.58978675839141104</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.78209986787961505</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.241719730092635</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.239942530659187</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.42208644920006899</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.4972862536431998E-3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.767405723685612</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.96385214027291699</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.76599863554788905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.32917489580181802</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.246867441278838</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.343205505628292</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.54184397502280501</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.40636037982303402</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.56493930063034303</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.36284339071806199</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.27211740808276702</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.37830907205709402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>B9*B11+C9*C11+D9*D11+1</f>
+        <v>2.6136063563636611</v>
+      </c>
+      <c r="G14">
+        <f>G9*G11+H9*H11+I9*I11 + 1</f>
+        <v>1.6655262661128991</v>
+      </c>
+      <c r="K14">
+        <f>K9*K11+L9*L11+M9*M11+1</f>
+        <v>3.4972564995064181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f>1/(1 + POWER(2.71,(-I2)*B14))</f>
+        <v>0.93122312167959187</v>
+      </c>
+      <c r="G15">
+        <f>1/(1 + POWER(2.71,(-I2)*G14))</f>
+        <v>0.840297614205611</v>
+      </c>
+      <c r="K15">
+        <f>1/(1 + POWER(2.71,(-I2)*K14))</f>
+        <v>0.97030365495421222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="17">
+        <f>B10</f>
+        <v>0.86194109468248803</v>
+      </c>
+      <c r="C17" s="17">
+        <f>G10</f>
+        <v>0.77616219659007901</v>
+      </c>
+      <c r="D17" s="17">
+        <f>K10</f>
+        <v>0.92645066290468503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.91673800994111598</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.215757541370871</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.43343688039253903</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.94602120468844997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <f>B15*B19+G15*C19+K15*D19+1</f>
+        <v>2.4830622202772594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <f>1/(1 + POWER(2.71,(-I2)*B21))</f>
+        <v>0.92240529298042495</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/project/NeuralNetwork/Ручной расчет.xlsx
+++ b/src/main/java/com/project/NeuralNetwork/Ручной расчет.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="29">
   <si>
     <t>Input</t>
   </si>
@@ -109,19 +110,23 @@
   </si>
   <si>
     <t>данные прогр.</t>
+  </si>
+  <si>
+    <t>производн.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +143,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +192,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,11 +248,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -243,6 +292,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,9 +302,16 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="2"/>
+    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Вывод" xfId="2" builtinId="21"/>
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,24 +773,24 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>0.66910564149521101</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="15">
         <v>0.50180132132739097</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="15">
         <v>0.69762531388895199</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="15"/>
       <c r="N10" s="4">
         <v>2</v>
       </c>
@@ -951,27 +1008,27 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>0.67781744450771497</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>0.67351122434696198</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="15">
         <v>0.712159832621865</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="4">
         <v>2</v>
       </c>
@@ -1202,27 +1259,27 @@
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>0.65974233532937498</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="15">
         <v>0.68709357097525603</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="15">
         <v>0.74321761849451096</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="4">
         <v>2</v>
       </c>
@@ -1388,11 +1445,11 @@
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="15">
         <v>0.78355046187545296</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="N34" s="4" t="s">
         <v>20</v>
       </c>
@@ -1458,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,27 +1703,27 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>0.86194109468248803</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="16">
         <v>0.77616219659007901</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="17">
         <v>0.92645066290468503</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1812,15 +1869,15 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <f>B10</f>
         <v>0.86194109468248803</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <f>G10</f>
         <v>0.77616219659007901</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <f>K10</f>
         <v>0.92645066290468503</v>
       </c>
@@ -1829,11 +1886,11 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>0.91673800994111598</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1884,4 +1941,336 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f>B3</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.80940367366968502</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.84963513470186602</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.44614005439142501</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.25216749368263403</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.73174222820189005</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.27897934761745602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="20">
+        <f>POWER(2.71,(-I2)*B14)/((1+POWER(2.71,(-I2)*B14))*(1+POWER(2.71,(-I2)*B14)))</f>
+        <v>0.15469072705791254</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="20">
+        <f>POWER(2.71,(-N2)*G14)/((1+POWER(2.71,(-N2)*G14))*(1+POWER(2.71,(-N2)*G14)))</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <f>B9*B11+C9*C11+1</f>
+        <v>1.4461400543914249</v>
+      </c>
+      <c r="G14">
+        <f>G9*G11+H9*H11 + 1</f>
+        <v>1.7317422282018899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f>1/(1 + POWER(2.71,(-I2)*B14))</f>
+        <v>0.80872199944624534</v>
+      </c>
+      <c r="G15">
+        <f>1/(1 + POWER(2.71,(-I2)*G14))</f>
+        <v>0.84895880515689648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
+        <f>B10</f>
+        <v>0.80940367366968502</v>
+      </c>
+      <c r="C17" s="14">
+        <f>G10</f>
+        <v>0.84963513470186602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.86510061041861996</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.34922687531499702</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.67752737054169399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="21">
+        <f>(0-B18) * D21</f>
+        <v>-0.10142838539689664</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="19">
+        <f>I3*B20*B17</f>
+        <v>-0.82096507754632775</v>
+      </c>
+      <c r="C21" s="19">
+        <f>I3*B20*C17</f>
+        <v>-0.86177119889285059</v>
+      </c>
+      <c r="D21" s="20">
+        <f>POWER(2.71,(-I2)*B22)/((1+POWER(2.71,(-I2)*B22))*(1+POWER(2.71,(-I2)*B22)))</f>
+        <v>0.11724461198543798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>B15*B19+G15*C19+1</f>
+        <v>1.8576202838212794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <f>1/(1 + POWER(2.71,(-I2)*B22))</f>
+        <v>0.86435612800467887</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>